--- a/data/Rivers/MakahikaAboveOhauConfluence_d5231db597.xlsx
+++ b/data/Rivers/MakahikaAboveOhauConfluence_d5231db597.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -678,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -709,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -740,7 +740,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -798,7 +798,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -914,7 +914,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -976,7 +976,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
